--- a/Code/Results/Cases/Case_5_183/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_183/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.914359168898102</v>
+        <v>1.301687528568038</v>
       </c>
       <c r="C2">
-        <v>1.126166936818436</v>
+        <v>0.300747461727866</v>
       </c>
       <c r="D2">
-        <v>0.325875453098547</v>
+        <v>0.1233630491873043</v>
       </c>
       <c r="E2">
-        <v>1.508533817718856</v>
+        <v>0.4157543743867365</v>
       </c>
       <c r="F2">
-        <v>6.64452350282707</v>
+        <v>2.798705207953788</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.330642336703761</v>
+        <v>1.171273146918452</v>
       </c>
       <c r="C3">
-        <v>0.9572611794098975</v>
+        <v>0.2623057578358043</v>
       </c>
       <c r="D3">
-        <v>0.2831316595814144</v>
+        <v>0.1128718144349108</v>
       </c>
       <c r="E3">
-        <v>1.274478987757249</v>
+        <v>0.362076079561902</v>
       </c>
       <c r="F3">
-        <v>5.740081127864897</v>
+        <v>2.580460778543483</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.984560682169786</v>
+        <v>1.092247776592785</v>
       </c>
       <c r="C4">
-        <v>0.8573255503605139</v>
+        <v>0.2388677213562289</v>
       </c>
       <c r="D4">
-        <v>0.2579759541256266</v>
+        <v>0.1064563759749859</v>
       </c>
       <c r="E4">
-        <v>1.1371589253542</v>
+        <v>0.3292994308155812</v>
       </c>
       <c r="F4">
-        <v>5.205753057272688</v>
+        <v>2.447576670238021</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.846075309607897</v>
+        <v>1.060301755946682</v>
       </c>
       <c r="C5">
-        <v>0.8173694701361285</v>
+        <v>0.229355877005446</v>
       </c>
       <c r="D5">
-        <v>0.2479501194263207</v>
+        <v>0.1038477432212375</v>
       </c>
       <c r="E5">
-        <v>1.08250166838873</v>
+        <v>0.3159841952222422</v>
       </c>
       <c r="F5">
-        <v>4.992389693943153</v>
+        <v>2.393692262385002</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.823219155933714</v>
+        <v>1.055012507639333</v>
       </c>
       <c r="C6">
-        <v>0.8107764951696481</v>
+        <v>0.2277787548360664</v>
       </c>
       <c r="D6">
-        <v>0.2462976683817857</v>
+        <v>0.1034149009966683</v>
       </c>
       <c r="E6">
-        <v>1.073496571775607</v>
+        <v>0.3137755948689431</v>
       </c>
       <c r="F6">
-        <v>4.957201619896125</v>
+        <v>2.384760503242802</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.982683379503271</v>
+        <v>1.091815907367675</v>
       </c>
       <c r="C7">
-        <v>0.8567837937618208</v>
+        <v>0.2387392848912668</v>
       </c>
       <c r="D7">
-        <v>0.2578398885759299</v>
+        <v>0.1064211730808466</v>
       </c>
       <c r="E7">
-        <v>1.136416892278035</v>
+        <v>0.3291196943742705</v>
       </c>
       <c r="F7">
-        <v>5.202858922663552</v>
+        <v>2.446848904307927</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.710173144604994</v>
+        <v>1.256498824658706</v>
       </c>
       <c r="C8">
-        <v>1.067026413432615</v>
+        <v>0.2874570817163544</v>
       </c>
       <c r="D8">
-        <v>0.3108795245656069</v>
+        <v>0.1197396920338889</v>
       </c>
       <c r="E8">
-        <v>1.42630338190682</v>
+        <v>0.3972057125687911</v>
       </c>
       <c r="F8">
-        <v>6.327722628874369</v>
+        <v>2.723213523426864</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.265612434942454</v>
+        <v>1.588085390464755</v>
       </c>
       <c r="C9">
-        <v>1.519464088145412</v>
+        <v>0.3844115841467897</v>
       </c>
       <c r="D9">
-        <v>0.4262493254934157</v>
+        <v>0.1461065271936377</v>
       </c>
       <c r="E9">
-        <v>2.063029095768741</v>
+        <v>0.5323678854346667</v>
       </c>
       <c r="F9">
-        <v>8.75047842122413</v>
+        <v>3.274723129474808</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.544014937011752</v>
+        <v>1.837444416842061</v>
       </c>
       <c r="C10">
-        <v>1.89532847186706</v>
+        <v>0.456667782732552</v>
       </c>
       <c r="D10">
-        <v>0.522916915836646</v>
+        <v>0.1656892636845839</v>
       </c>
       <c r="E10">
-        <v>2.605783700958995</v>
+        <v>0.6329670626702324</v>
       </c>
       <c r="F10">
-        <v>10.75424082456158</v>
+        <v>3.686736685555786</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.173871963502847</v>
+        <v>1.952238773908789</v>
       </c>
       <c r="C11">
-        <v>2.082108635261989</v>
+        <v>0.4897972460817073</v>
       </c>
       <c r="D11">
-        <v>0.5711190794098684</v>
+        <v>0.1746568592192546</v>
       </c>
       <c r="E11">
-        <v>2.880487308587078</v>
+        <v>0.6790791895586068</v>
       </c>
       <c r="F11">
-        <v>11.7442678578837</v>
+        <v>3.875874300919293</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.42164443158299</v>
+        <v>1.995912514945587</v>
       </c>
       <c r="C12">
-        <v>2.155900022332105</v>
+        <v>0.5023827667379237</v>
       </c>
       <c r="D12">
-        <v>0.5901816606651096</v>
+        <v>0.1780622397111813</v>
       </c>
       <c r="E12">
-        <v>2.989983930174844</v>
+        <v>0.6965962014160993</v>
       </c>
       <c r="F12">
-        <v>12.13409822220416</v>
+        <v>3.947759482263052</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.367823890402519</v>
+        <v>1.986497406172077</v>
       </c>
       <c r="C13">
-        <v>2.139855567028462</v>
+        <v>0.4996704208222127</v>
       </c>
       <c r="D13">
-        <v>0.5860361389528919</v>
+        <v>0.1773283890871369</v>
       </c>
       <c r="E13">
-        <v>2.96612815560195</v>
+        <v>0.6928210541511817</v>
       </c>
       <c r="F13">
-        <v>12.04940447598295</v>
+        <v>3.932265758005713</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.194054377950579</v>
+        <v>1.955827710953031</v>
       </c>
       <c r="C14">
-        <v>2.088112497045017</v>
+        <v>0.4908318444166184</v>
       </c>
       <c r="D14">
-        <v>0.5726697167179964</v>
+        <v>0.1749368246897234</v>
       </c>
       <c r="E14">
-        <v>2.88937530682017</v>
+        <v>0.6805191853053856</v>
       </c>
       <c r="F14">
-        <v>11.77601453255403</v>
+        <v>3.881782971614427</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.08890482141237</v>
+        <v>1.937068397614212</v>
       </c>
       <c r="C15">
-        <v>2.056845769327651</v>
+        <v>0.4854232683167652</v>
       </c>
       <c r="D15">
-        <v>0.5645950867809688</v>
+        <v>0.1734731962532408</v>
       </c>
       <c r="E15">
-        <v>2.843128857796899</v>
+        <v>0.6729912991885101</v>
       </c>
       <c r="F15">
-        <v>11.61063028757542</v>
+        <v>3.850895548665449</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.50400352544915</v>
+        <v>1.829970381361761</v>
       </c>
       <c r="C16">
-        <v>1.883500865547262</v>
+        <v>0.454508155220708</v>
       </c>
       <c r="D16">
-        <v>0.5198674745138021</v>
+        <v>0.1651044902739898</v>
       </c>
       <c r="E16">
-        <v>2.588503621290769</v>
+        <v>0.6299609881346697</v>
       </c>
       <c r="F16">
-        <v>10.69140251426279</v>
+        <v>3.674411954279094</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.15895970797817</v>
+        <v>1.764623137037574</v>
       </c>
       <c r="C17">
-        <v>1.781682087096442</v>
+        <v>0.4356112001661359</v>
       </c>
       <c r="D17">
-        <v>0.4936334766607047</v>
+        <v>0.1599864691876292</v>
       </c>
       <c r="E17">
-        <v>2.44029819335357</v>
+        <v>0.6036563113331539</v>
       </c>
       <c r="F17">
-        <v>10.14980673568229</v>
+        <v>3.566595007603013</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.964870503361794</v>
+        <v>1.727164610783916</v>
       </c>
       <c r="C18">
-        <v>1.724545184917986</v>
+        <v>0.4247664505884927</v>
       </c>
       <c r="D18">
-        <v>0.4789269749357175</v>
+        <v>0.1570482393692032</v>
       </c>
       <c r="E18">
-        <v>2.357557198201363</v>
+        <v>0.5885590947900852</v>
       </c>
       <c r="F18">
-        <v>9.845408758620636</v>
+        <v>3.504741527073719</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.899848177217791</v>
+        <v>1.714503450146765</v>
       </c>
       <c r="C19">
-        <v>1.705425019204313</v>
+        <v>0.4210986920562618</v>
       </c>
       <c r="D19">
-        <v>0.4740082858559163</v>
+        <v>0.1560543227081723</v>
       </c>
       <c r="E19">
-        <v>2.329936379577049</v>
+        <v>0.5834528703535824</v>
       </c>
       <c r="F19">
-        <v>9.743475328211446</v>
+        <v>3.483825968738444</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.195223673441717</v>
+        <v>1.771566211276365</v>
       </c>
       <c r="C20">
-        <v>1.792368411244752</v>
+        <v>0.4376202807796403</v>
       </c>
       <c r="D20">
-        <v>0.4963852983871107</v>
+        <v>0.1605307126019682</v>
       </c>
       <c r="E20">
-        <v>2.455807017030651</v>
+        <v>0.6064530846480238</v>
       </c>
       <c r="F20">
-        <v>10.20670192538611</v>
+        <v>3.578055627605522</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.244820566280566</v>
+        <v>1.964830552200908</v>
       </c>
       <c r="C21">
-        <v>2.103219748298898</v>
+        <v>0.4934268375054671</v>
       </c>
       <c r="D21">
-        <v>0.5765718000771756</v>
+        <v>0.175639017821851</v>
       </c>
       <c r="E21">
-        <v>2.911756093989709</v>
+        <v>0.6841309983901596</v>
       </c>
       <c r="F21">
-        <v>11.8558748385849</v>
+        <v>3.896603718956044</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.986573740760264</v>
+        <v>2.092330707953749</v>
       </c>
       <c r="C22">
-        <v>2.324852423173581</v>
+        <v>0.5301347953886193</v>
       </c>
       <c r="D22">
-        <v>0.6338543903200389</v>
+        <v>0.1855693007810544</v>
       </c>
       <c r="E22">
-        <v>3.242854261593664</v>
+        <v>0.7352231267241507</v>
       </c>
       <c r="F22">
-        <v>13.02354365974946</v>
+        <v>4.106333638094725</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.584561878587181</v>
+        <v>2.024169780583463</v>
       </c>
       <c r="C23">
-        <v>2.204521223113716</v>
+        <v>0.5105206166376774</v>
       </c>
       <c r="D23">
-        <v>0.6027465007992987</v>
+        <v>0.1802638442694331</v>
       </c>
       <c r="E23">
-        <v>3.062441503718489</v>
+        <v>0.7079228058401696</v>
       </c>
       <c r="F23">
-        <v>12.39051988212776</v>
+        <v>3.99425021284344</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.178815561461818</v>
+        <v>1.768426903915952</v>
       </c>
       <c r="C24">
-        <v>1.787532818178761</v>
+        <v>0.436711915334115</v>
       </c>
       <c r="D24">
-        <v>0.4951400433990898</v>
+        <v>0.1602846471847954</v>
       </c>
       <c r="E24">
-        <v>2.448787904000667</v>
+        <v>0.6051885837940887</v>
       </c>
       <c r="F24">
-        <v>10.18095814634879</v>
+        <v>3.572873871679349</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.826028893508465</v>
+        <v>1.497409031274401</v>
       </c>
       <c r="C25">
-        <v>1.391116050906078</v>
+        <v>0.3580147870183055</v>
       </c>
       <c r="D25">
-        <v>0.3933856390594315</v>
+        <v>0.1389408687351619</v>
       </c>
       <c r="E25">
-        <v>1.880604580108283</v>
+        <v>0.4955969926831187</v>
       </c>
       <c r="F25">
-        <v>8.063775557493216</v>
+        <v>3.124400418051067</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_183/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_183/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.301687528568038</v>
+        <v>3.914359168898272</v>
       </c>
       <c r="C2">
-        <v>0.300747461727866</v>
+        <v>1.126166936818521</v>
       </c>
       <c r="D2">
-        <v>0.1233630491873043</v>
+        <v>0.3258754530982628</v>
       </c>
       <c r="E2">
-        <v>0.4157543743867365</v>
+        <v>1.508533817718785</v>
       </c>
       <c r="F2">
-        <v>2.798705207953788</v>
+        <v>6.6445235028269</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.171273146918452</v>
+        <v>3.330642336703704</v>
       </c>
       <c r="C3">
-        <v>0.2623057578358043</v>
+        <v>0.9572611794098691</v>
       </c>
       <c r="D3">
-        <v>0.1128718144349108</v>
+        <v>0.283131659581457</v>
       </c>
       <c r="E3">
-        <v>0.362076079561902</v>
+        <v>1.274478987757249</v>
       </c>
       <c r="F3">
-        <v>2.580460778543483</v>
+        <v>5.74008112786484</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.092247776592785</v>
+        <v>2.984560682169729</v>
       </c>
       <c r="C4">
-        <v>0.2388677213562289</v>
+        <v>0.857325550359775</v>
       </c>
       <c r="D4">
-        <v>0.1064563759749859</v>
+        <v>0.2579759541252713</v>
       </c>
       <c r="E4">
-        <v>0.3292994308155812</v>
+        <v>1.137158925354299</v>
       </c>
       <c r="F4">
-        <v>2.447576670238021</v>
+        <v>5.205753057272489</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.060301755946682</v>
+        <v>2.846075309607784</v>
       </c>
       <c r="C5">
-        <v>0.229355877005446</v>
+        <v>0.8173694701355601</v>
       </c>
       <c r="D5">
-        <v>0.1038477432212375</v>
+        <v>0.2479501194265339</v>
       </c>
       <c r="E5">
-        <v>0.3159841952222422</v>
+        <v>1.082501668388758</v>
       </c>
       <c r="F5">
-        <v>2.393692262385002</v>
+        <v>4.992389693943181</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.055012507639333</v>
+        <v>2.823219155933657</v>
       </c>
       <c r="C6">
-        <v>0.2277787548360664</v>
+        <v>0.8107764951693071</v>
       </c>
       <c r="D6">
-        <v>0.1034149009966683</v>
+        <v>0.2462976683818283</v>
       </c>
       <c r="E6">
-        <v>0.3137755948689431</v>
+        <v>1.073496571775649</v>
       </c>
       <c r="F6">
-        <v>2.384760503242802</v>
+        <v>4.957201619896153</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.091815907367675</v>
+        <v>2.982683379503442</v>
       </c>
       <c r="C7">
-        <v>0.2387392848912668</v>
+        <v>0.8567837937612239</v>
       </c>
       <c r="D7">
-        <v>0.1064211730808466</v>
+        <v>0.2578398885760578</v>
       </c>
       <c r="E7">
-        <v>0.3291196943742705</v>
+        <v>1.136416892277992</v>
       </c>
       <c r="F7">
-        <v>2.446848904307927</v>
+        <v>5.202858922663552</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.256498824658706</v>
+        <v>3.710173144605051</v>
       </c>
       <c r="C8">
-        <v>0.2874570817163544</v>
+        <v>1.067026413432529</v>
       </c>
       <c r="D8">
-        <v>0.1197396920338889</v>
+        <v>0.3108795245654363</v>
       </c>
       <c r="E8">
-        <v>0.3972057125687911</v>
+        <v>1.426303381906834</v>
       </c>
       <c r="F8">
-        <v>2.723213523426864</v>
+        <v>6.327722628874341</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.588085390464755</v>
+        <v>5.265612434942341</v>
       </c>
       <c r="C9">
-        <v>0.3844115841467897</v>
+        <v>1.519464088145469</v>
       </c>
       <c r="D9">
-        <v>0.1461065271936377</v>
+        <v>0.4262493254929893</v>
       </c>
       <c r="E9">
-        <v>0.5323678854346667</v>
+        <v>2.063029095768698</v>
       </c>
       <c r="F9">
-        <v>3.274723129474808</v>
+        <v>8.750478421224159</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.837444416842061</v>
+        <v>6.544014937011468</v>
       </c>
       <c r="C10">
-        <v>0.456667782732552</v>
+        <v>1.895328471866549</v>
       </c>
       <c r="D10">
-        <v>0.1656892636845839</v>
+        <v>0.5229169158366176</v>
       </c>
       <c r="E10">
-        <v>0.6329670626702324</v>
+        <v>2.605783700959023</v>
       </c>
       <c r="F10">
-        <v>3.686736685555786</v>
+        <v>10.75424082456163</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.952238773908789</v>
+        <v>7.173871963502734</v>
       </c>
       <c r="C11">
-        <v>0.4897972460817073</v>
+        <v>2.082108635262841</v>
       </c>
       <c r="D11">
-        <v>0.1746568592192546</v>
+        <v>0.5711190794094421</v>
       </c>
       <c r="E11">
-        <v>0.6790791895586068</v>
+        <v>2.880487308587078</v>
       </c>
       <c r="F11">
-        <v>3.875874300919293</v>
+        <v>11.74426785788376</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.995912514945587</v>
+        <v>7.421644431583047</v>
       </c>
       <c r="C12">
-        <v>0.5023827667379237</v>
+        <v>2.155900022332048</v>
       </c>
       <c r="D12">
-        <v>0.1780622397111813</v>
+        <v>0.5901816606651096</v>
       </c>
       <c r="E12">
-        <v>0.6965962014160993</v>
+        <v>2.989983930174873</v>
       </c>
       <c r="F12">
-        <v>3.947759482263052</v>
+        <v>12.13409822220422</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.986497406172077</v>
+        <v>7.367823890402406</v>
       </c>
       <c r="C13">
-        <v>0.4996704208222127</v>
+        <v>2.139855567027553</v>
       </c>
       <c r="D13">
-        <v>0.1773283890871369</v>
+        <v>0.5860361389526929</v>
       </c>
       <c r="E13">
-        <v>0.6928210541511817</v>
+        <v>2.966128155601922</v>
       </c>
       <c r="F13">
-        <v>3.932265758005713</v>
+        <v>12.0494044759829</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.955827710953031</v>
+        <v>7.194054377950806</v>
       </c>
       <c r="C14">
-        <v>0.4908318444166184</v>
+        <v>2.088112497045074</v>
       </c>
       <c r="D14">
-        <v>0.1749368246897234</v>
+        <v>0.572669716718309</v>
       </c>
       <c r="E14">
-        <v>0.6805191853053856</v>
+        <v>2.889375306820199</v>
       </c>
       <c r="F14">
-        <v>3.881782971614427</v>
+        <v>11.7760145325538</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.937068397614212</v>
+        <v>7.088904821411916</v>
       </c>
       <c r="C15">
-        <v>0.4854232683167652</v>
+        <v>2.05684576932731</v>
       </c>
       <c r="D15">
-        <v>0.1734731962532408</v>
+        <v>0.5645950867809404</v>
       </c>
       <c r="E15">
-        <v>0.6729912991885101</v>
+        <v>2.843128857796899</v>
       </c>
       <c r="F15">
-        <v>3.850895548665449</v>
+        <v>11.61063028757542</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.829970381361761</v>
+        <v>6.50400352544932</v>
       </c>
       <c r="C16">
-        <v>0.454508155220708</v>
+        <v>1.883500865547205</v>
       </c>
       <c r="D16">
-        <v>0.1651044902739898</v>
+        <v>0.5198674745137737</v>
       </c>
       <c r="E16">
-        <v>0.6299609881346697</v>
+        <v>2.588503621290783</v>
       </c>
       <c r="F16">
-        <v>3.674411954279094</v>
+        <v>10.69140251426285</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.764623137037574</v>
+        <v>6.15895970797834</v>
       </c>
       <c r="C17">
-        <v>0.4356112001661359</v>
+        <v>1.781682087095987</v>
       </c>
       <c r="D17">
-        <v>0.1599864691876292</v>
+        <v>0.4936334766608468</v>
       </c>
       <c r="E17">
-        <v>0.6036563113331539</v>
+        <v>2.440298193353556</v>
       </c>
       <c r="F17">
-        <v>3.566595007603013</v>
+        <v>10.14980673568229</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.727164610783916</v>
+        <v>5.964870503361851</v>
       </c>
       <c r="C18">
-        <v>0.4247664505884927</v>
+        <v>1.724545184918725</v>
       </c>
       <c r="D18">
-        <v>0.1570482393692032</v>
+        <v>0.4789269749353764</v>
       </c>
       <c r="E18">
-        <v>0.5885590947900852</v>
+        <v>2.357557198201334</v>
       </c>
       <c r="F18">
-        <v>3.504741527073719</v>
+        <v>9.845408758620863</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.714503450146765</v>
+        <v>5.899848177217393</v>
       </c>
       <c r="C19">
-        <v>0.4210986920562618</v>
+        <v>1.705425019204597</v>
       </c>
       <c r="D19">
-        <v>0.1560543227081723</v>
+        <v>0.4740082858555752</v>
       </c>
       <c r="E19">
-        <v>0.5834528703535824</v>
+        <v>2.32993637957702</v>
       </c>
       <c r="F19">
-        <v>3.483825968738444</v>
+        <v>9.743475328211673</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.771566211276365</v>
+        <v>6.195223673441205</v>
       </c>
       <c r="C20">
-        <v>0.4376202807796403</v>
+        <v>1.792368411244809</v>
       </c>
       <c r="D20">
-        <v>0.1605307126019682</v>
+        <v>0.496385298387338</v>
       </c>
       <c r="E20">
-        <v>0.6064530846480238</v>
+        <v>2.455807017030594</v>
       </c>
       <c r="F20">
-        <v>3.578055627605522</v>
+        <v>10.20670192538608</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.964830552200908</v>
+        <v>7.244820566280453</v>
       </c>
       <c r="C21">
-        <v>0.4934268375054671</v>
+        <v>2.103219748299352</v>
       </c>
       <c r="D21">
-        <v>0.175639017821851</v>
+        <v>0.5765718000773177</v>
       </c>
       <c r="E21">
-        <v>0.6841309983901596</v>
+        <v>2.911756093989695</v>
       </c>
       <c r="F21">
-        <v>3.896603718956044</v>
+        <v>11.85587483858484</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.092330707953749</v>
+        <v>7.986573740760264</v>
       </c>
       <c r="C22">
-        <v>0.5301347953886193</v>
+        <v>2.32485242317415</v>
       </c>
       <c r="D22">
-        <v>0.1855693007810544</v>
+        <v>0.6338543903197831</v>
       </c>
       <c r="E22">
-        <v>0.7352231267241507</v>
+        <v>3.242854261593649</v>
       </c>
       <c r="F22">
-        <v>4.106333638094725</v>
+        <v>13.02354365974963</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.024169780583463</v>
+        <v>7.584561878587294</v>
       </c>
       <c r="C23">
-        <v>0.5105206166376774</v>
+        <v>2.204521223113773</v>
       </c>
       <c r="D23">
-        <v>0.1802638442694331</v>
+        <v>0.6027465007992987</v>
       </c>
       <c r="E23">
-        <v>0.7079228058401696</v>
+        <v>3.062441503718446</v>
       </c>
       <c r="F23">
-        <v>3.99425021284344</v>
+        <v>12.39051988212776</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.768426903915952</v>
+        <v>6.178815561461818</v>
       </c>
       <c r="C24">
-        <v>0.436711915334115</v>
+        <v>1.78753281817967</v>
       </c>
       <c r="D24">
-        <v>0.1602846471847954</v>
+        <v>0.4951400433988908</v>
       </c>
       <c r="E24">
-        <v>0.6051885837940887</v>
+        <v>2.448787904000724</v>
       </c>
       <c r="F24">
-        <v>3.572873871679349</v>
+        <v>10.18095814634884</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.497409031274401</v>
+        <v>4.826028893508237</v>
       </c>
       <c r="C25">
-        <v>0.3580147870183055</v>
+        <v>1.39111605090693</v>
       </c>
       <c r="D25">
-        <v>0.1389408687351619</v>
+        <v>0.3933856390596588</v>
       </c>
       <c r="E25">
-        <v>0.4955969926831187</v>
+        <v>1.880604580108312</v>
       </c>
       <c r="F25">
-        <v>3.124400418051067</v>
+        <v>8.063775557493216</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
